--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Aug 13 23:52:53 2020</t>
+    <t>Thu Aug 13 23:59:06 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Aug 13 23:59:06 2020</t>
+    <t>Fri Aug 14 00:15:50 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 00:15:50 2020</t>
+    <t>Fri Aug 14 00:24:30 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 00:24:30 2020</t>
+    <t>Fri Aug 14 00:29:35 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 00:29:35 2020</t>
+    <t>Fri Aug 14 00:50:40 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 00:50:40 2020</t>
+    <t>Fri Aug 14 00:51:36 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 00:51:36 2020</t>
+    <t>Fri Aug 14 01:02:34 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 02:46:30 2020</t>
+    <t>Fri Aug 14 04:11:31 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 04:11:31 2020</t>
+    <t>Wed Aug 19 22:17:00 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Aug 19 22:17:00 2020</t>
+    <t>Thu Aug 20 06:31:59 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Aug 20 06:31:59 2020</t>
+    <t>Fri Oct  2 12:06:28 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Oct  2 12:06:28 2020</t>
+    <t>Fri Oct  2 13:04:16 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Oct  2 13:04:16 2020</t>
+    <t>Wed Oct  7 12:31:29 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Oct  7 12:31:29 2020</t>
+    <t>Thu Oct 15 19:52:33 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -682,7 +682,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>High-Speed CAN Transceiver, 1Mbps, 5V supply, SPLIT pin, -40C to +125C, SOIC8 package</t>
+    <t>High-Speed CAN Transceiver, 1Mbps, 5V supply, SPLIT pin, -40C to +125C, SOIC-8</t>
   </si>
   <si>
     <t>MCP2561-E-SN</t>
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Oct 21 20:15:32 2020</t>
+    <t>Fri Oct 23 23:00:29 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -754,7 +754,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>Eeschema 5.1.5+dfsg1-2~bpo10+1</t>
+    <t>Eeschema 5.1.6+dfsg1-1~bpo10+1</t>
   </si>
 </sst>
 </file>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Oct 23 23:00:29 2020</t>
+    <t>Thu Oct 29 20:41:04 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Oct 29 20:41:04 2020</t>
+    <t>Mon Nov 16 17:05:48 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Mon Nov 16 17:05:48 2020</t>
+    <t>Mon Nov 16 17:06:31 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -754,7 +754,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>Eeschema 5.1.6+dfsg1-1~bpo10+1</t>
+    <t>Eeschema 5.1.7+dfsg1-1~bpo10+1</t>
   </si>
 </sst>
 </file>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Mon Nov 16 17:06:31 2020</t>
+    <t>Mon Nov 16 17:06:06 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -754,7 +754,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>Eeschema 5.1.7+dfsg1-1~bpo10+1</t>
+    <t>Eeschema 5.1.6+dfsg1-1~bpo10+1</t>
   </si>
 </sst>
 </file>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Mon Nov 16 17:06:06 2020</t>
+    <t>Wed Dec 16 15:11:17 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -754,7 +754,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>Eeschema 5.1.6+dfsg1-1~bpo10+1</t>
+    <t>Eeschema 5.1.7+dfsg1-1~bpo10+1</t>
   </si>
 </sst>
 </file>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Dec 16 15:11:17 2020</t>
+    <t>Tue Jan  5 11:32:20 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Tue Jan  5 11:32:20 2021</t>
+    <t>Tue Jan  5 11:32:14 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Tue Jan  5 11:32:14 2021</t>
+    <t>Fri Mar 26 12:48:08 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Apr 28 03:08:20 2021</t>
+    <t>Wed Apr 28 03:15:42 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Apr 28 03:15:42 2021</t>
+    <t>Wed Apr 28 03:22:02 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Apr 28 03:22:02 2021</t>
+    <t>Wed Apr 28 03:25:30 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Apr 28 03:25:30 2021</t>
+    <t>Wed May 12 12:37:47 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed May 12 12:37:47 2021</t>
+    <t>Thu Jun 17 14:10:07 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Jun 17 14:10:07 2021</t>
+    <t>Thu Jun 17 15:15:52 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Jun 17 15:15:52 2021</t>
+    <t>Mon Oct 18 16:57:18 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Mon Oct 18 16:57:18 2021</t>
+    <t>Wed Nov  3 21:53:43 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Nov  3 21:53:43 2021</t>
+    <t>Wed Dec  8 12:10:28 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Dec  8 12:10:28 2021</t>
+    <t>Thu Dec 16 11:42:36 2021</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Dec 16 11:42:36 2021</t>
+    <t>Wed Mar  2 13:35:52 2022</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Wed Mar  2 13:35:52 2022</t>
+    <t>Thu Mar  3 22:48:08 2022</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/hardware/bom/MCB19-bom.xlsx
+++ b/hardware/bom/MCB19-bom.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Mar  3 22:48:08 2022</t>
+    <t>Fri Mar  4 12:24:29 2022</t>
   </si>
   <si>
     <t>Schematic Source:</t>
